--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -12,12 +12,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>storyText</t>
   </si>
   <si>
-    <t>Grocery Shopping Breakup</t>
+    <t>locationEvent</t>
+  </si>
+  <si>
+    <t>socialEvent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>e grocery store was not the place Emmanuella and Liam wanted to be as they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">But they had to be there, seeing as they were hosting a dinner party for friends that evening and had no groceries. </t>
+  </si>
+  <si>
+    <t>The grocery store was dimly lit and had dark wood paneling for the shelves.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The store specialized in organic produce and products catering to desires for high-end products, such as imported cheeses and sauces. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuella felt angry as she headed immediately for the pasta section, and Liam trailed behind her. </t>
+  </si>
+  <si>
+    <t>Emmanuella selected a few pasta boxes of linguine.</t>
+  </si>
+  <si>
+    <t>“I guess we are having pasta tonight,” Liam said.</t>
+  </si>
+  <si>
+    <t>Emmanuella looked back at him and said, “Well if you were going to actually help cook, I would be fine with something else.”</t>
+  </si>
+  <si>
+    <t>Liam sighed, “You don’t want me to help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I try to, but it seems like I always get in the way!” </t>
+  </si>
+  <si>
+    <t>Emmanuella angrily threw the pasta into the cart, losing her temper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “Liam, I don’t think I can do this anymore. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was going to wait until after this dinner party tonight to talk about this, but I don’t want to be in a relationship with you anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I’m tired of the constant fighting, and I feel like when we try to do anything fun it ends up unpleasant for stupidest reasons, and I am just past  trying to work things out.”</t>
+  </si>
+  <si>
+    <t>Liam refused to look at her as she picked out sauces for the pasta, and then she threw up her hands, saying, “You know what, if this party is still happening we are going to just eat pasta.”</t>
+  </si>
+  <si>
+    <t>They headed to the checkout area where there were only two stations open but they were not crowded at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emmanuella sighed and got in line, while Liam pretended to be interested in the magazine racks in order to avoid her gaze. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finally he turned to her and sighed, “Yes, I was thinking the same thing - I think we could definitely be happier with other people.” </t>
+  </si>
+  <si>
+    <t>As if she hadn't heard him, Emmanuella looked at their cart and said, “I'm not sure this will be enough, could you grab another box of pasta?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liam scoffed, and walked off to quickly get it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Emmanuella waited in line, she took a moment to compose herself, deciding that there was no reason to continue making a scene in the store. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Right when Liam came back with the pasta, the cashier started scanning their groceries.</t>
+  </si>
+  <si>
+    <t>The cost came to $30, and Emmanuella paid with her credit card.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She asked Liam politely to take the bags, and he obliged, following her to toward the exit. </t>
+  </si>
+  <si>
+    <t>“Liam, I think we are making the right decision.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is good.” </t>
+  </si>
+  <si>
+    <t>“I agree,” he said, visibly relieved at the thought that they had gotten through the last fight they would ever need to have.</t>
+  </si>
+  <si>
+    <t>“I think we can still host this dinner tonight, as long as you're still on board,” Emmanuella said.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liam nodded, “Yes, let’s just not tell anyone yet.” </t>
+  </si>
+  <si>
+    <t>Emmanuella laughed, “If one of it leaks it, they lose their rights to the cat.”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Liam rolled his eyes, but managed a weak chuckle.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -27,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -39,13 +177,28 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -184,38 +343,50 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -239,6 +410,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -255,10 +427,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -435,11 +607,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -448,27 +623,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -725,10 +900,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1019,7 +1194,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1300,11 +1475,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1316,205 +1489,688 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" ht="32.05" customHeight="1">
+      <c r="A3" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="8">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="A13" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="A14" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" t="s" s="12">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B27" s="9">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9">
+        <v>4</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="B30" s="9">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10">
+        <v>4</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>32</v>
+      </c>
+      <c r="B31" s="9">
+        <v>4</v>
+      </c>
+      <c r="C31" s="10">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>4</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>storyText</t>
   </si>
@@ -48,14 +48,14 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>e grocery store was not the place Emmanuella and Liam wanted to be as they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam.</t>
+      <t>e grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">But they had to be there, seeing as they were hosting a dinner party for friends that evening and had no groceries. </t>
-  </si>
-  <si>
-    <t>The grocery store was dimly lit and had dark wood paneling for the shelves.</t>
+    <t xml:space="preserve">However, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had no groceries. </t>
+  </si>
+  <si>
+    <t>The grocery store was dimly lit and had dark wood paneling for all the shelves.</t>
   </si>
   <si>
     <t xml:space="preserve">The store specialized in organic produce and products catering to desires for high-end products, such as imported cheeses and sauces. </t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Emmanuella felt angry as she headed immediately for the pasta section, and Liam trailed behind her. </t>
   </si>
   <si>
-    <t>Emmanuella selected a few pasta boxes of linguine.</t>
+    <t>Emmanuella selected a few boxes of linguine.</t>
   </si>
   <si>
     <t>“I guess we are having pasta tonight,” Liam said.</t>
@@ -73,7 +73,7 @@
     <t>Emmanuella looked back at him and said, “Well if you were going to actually help cook, I would be fine with something else.”</t>
   </si>
   <si>
-    <t>Liam sighed, “You don’t want me to help.</t>
+    <t>Liam sighed, and finally said, “You don’t want me to help.</t>
   </si>
   <si>
     <t xml:space="preserve"> I try to, but it seems like I always get in the way!” </t>
@@ -82,22 +82,28 @@
     <t>Emmanuella angrily threw the pasta into the cart, losing her temper.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “Liam, I don’t think I can do this anymore. </t>
+    <t xml:space="preserve"> “Liam, you don’t even try!</t>
+  </si>
+  <si>
+    <t>You know what?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I don’t think I can do this anymore. </t>
   </si>
   <si>
     <t xml:space="preserve"> I was going to wait until after this dinner party tonight to talk about this, but I don’t want to be in a relationship with you anymore.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I’m tired of the constant fighting, and I feel like when we try to do anything fun it ends up unpleasant for stupidest reasons, and I am just past  trying to work things out.”</t>
+    <t xml:space="preserve"> I’m tired of the constant fighting, and I feel like when we try to do anything fun it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
   </si>
   <si>
     <t>Liam refused to look at her as she picked out sauces for the pasta, and then she threw up her hands, saying, “You know what, if this party is still happening we are going to just eat pasta.”</t>
   </si>
   <si>
-    <t>They headed to the checkout area where there were only two stations open but they were not crowded at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Emmanuella sighed and got in line, while Liam pretended to be interested in the magazine racks in order to avoid her gaze. </t>
+    <t>They headed to the checkout area where there was only one station open but it was not crowded at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Emmanuella sighed and got in line while Liam pretended to be interested in the magazine racks as he thought. </t>
   </si>
   <si>
     <t xml:space="preserve"> Finally he turned to her and sighed, “Yes, I was thinking the same thing - I think we could definitely be happier with other people.” </t>
@@ -106,7 +112,7 @@
     <t>As if she hadn't heard him, Emmanuella looked at their cart and said, “I'm not sure this will be enough, could you grab another box of pasta?”</t>
   </si>
   <si>
-    <t xml:space="preserve"> Liam scoffed, and walked off to quickly get it.</t>
+    <t xml:space="preserve"> Liam scoffed and walked off to quickly get it.</t>
   </si>
   <si>
     <t xml:space="preserve">As Emmanuella waited in line, she took a moment to compose herself, deciding that there was no reason to continue making a scene in the store. </t>
@@ -136,7 +142,7 @@
     <t xml:space="preserve">Liam nodded, “Yes, let’s just not tell anyone yet.” </t>
   </si>
   <si>
-    <t>Emmanuella laughed, “If one of it leaks it, they lose their rights to the cat.”</t>
+    <t>Emmanuella laughed, “Whoever leaks it loses their rights to the cat.”</t>
   </si>
   <si>
     <r>
@@ -145,7 +151,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Liam rolled his eyes, but managed a weak chuckle.</t>
+      <t>Liam rolled his eyes and managed a weak chuckle, knowing the cat would be a whole other issue to sort out later.</t>
     </r>
     <r>
       <rPr>
@@ -1475,7 +1481,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1673,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1688,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1711,7 +1717,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="12">
+      <c r="A16" t="s" s="8">
         <v>17</v>
       </c>
       <c r="B16" s="9">
@@ -1730,7 +1736,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -1741,11 +1747,11 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
+      <c r="A18" t="s" s="12">
         <v>19</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -1763,7 +1769,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1778,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1820,7 +1826,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -1835,7 +1841,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -1868,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1883,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1921,7 +1927,7 @@
       <c r="G29" s="11"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="12">
+      <c r="A30" t="s" s="8">
         <v>31</v>
       </c>
       <c r="B30" s="9">
@@ -1936,7 +1942,7 @@
       <c r="G30" s="11"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="12">
+      <c r="A31" t="s" s="8">
         <v>32</v>
       </c>
       <c r="B31" s="9">
@@ -1966,18 +1972,30 @@
       <c r="G32" s="11"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="11"/>
+      <c r="A33" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B33" s="9">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>4</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="11"/>
+      <c r="A34" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>4</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -2172,6 +2190,24 @@
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
+    <row r="56" ht="20.05" customHeight="1">
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -76,7 +76,7 @@
     <t>Liam sighed, and finally said, “You don’t want me to help.</t>
   </si>
   <si>
-    <t xml:space="preserve"> I try to, but it seems like I always get in the way!” </t>
+    <t xml:space="preserve">I try to, but it seems like I always get in the way!” </t>
   </si>
   <si>
     <t>Emmanuella angrily threw the pasta into the cart, losing her temper.</t>
@@ -91,10 +91,10 @@
     <t xml:space="preserve">I don’t think I can do this anymore. </t>
   </si>
   <si>
-    <t xml:space="preserve"> I was going to wait until after this dinner party tonight to talk about this, but I don’t want to be in a relationship with you anymore.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I’m tired of the constant fighting, and I feel like when we try to do anything fun it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
+    <t>I was going to wait until after this unfortunately-timed dinner party tonight to talk about this, but I might as well say it now: I don’t want to be in a relationship with you anymore.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I’m tired of the constant fighting, and I feel like when we try to do anything fun anymore it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
   </si>
   <si>
     <t>Liam refused to look at her as she picked out sauces for the pasta, and then she threw up her hands, saying, “You know what, if this party is still happening we are going to just eat pasta.”</t>
@@ -103,10 +103,10 @@
     <t>They headed to the checkout area where there was only one station open but it was not crowded at all.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Emmanuella sighed and got in line while Liam pretended to be interested in the magazine racks as he thought. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finally he turned to her and sighed, “Yes, I was thinking the same thing - I think we could definitely be happier with other people.” </t>
+    <t xml:space="preserve">Emmanuella sighed and got in line while Liam pretended to be interested in the magazine racks as he thought. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally he turned to her and sighed, “Yes, I was thinking the same thing - I think we could definitely be happier with other people.” </t>
   </si>
   <si>
     <t>As if she hadn't heard him, Emmanuella looked at their cart and said, “I'm not sure this will be enough, could you grab another box of pasta?”</t>
@@ -349,7 +349,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -359,7 +359,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -371,9 +371,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -383,16 +380,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1487,7 +1478,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1516,697 +1513,697 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="8">
+      <c r="A3" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+      <c r="A4" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="A6" t="s" s="7">
         <v>7</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="A7" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+      <c r="A8" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+      <c r="A9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+      <c r="A10" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="10">
         <v>12</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
+      <c r="A12" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
+      <c r="A13" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
+      <c r="A14" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="A15" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
+      <c r="A16" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
+      <c r="A17" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="10">
         <v>19</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="8">
+      <c r="A19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>3</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
+      <c r="A20" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>3</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
+      <c r="A21" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+      <c r="A22" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>3</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+      <c r="A23" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>3</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>3</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+      <c r="A24" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>3</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>3</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
+      <c r="A25" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>4</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>3</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
+      <c r="A26" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>4</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>3</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+      <c r="A27" t="s" s="7">
         <v>28</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>4</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>3</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+      <c r="A28" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>4</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>4</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="8">
+      <c r="A29" t="s" s="7">
         <v>30</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>4</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="8">
+      <c r="A30" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="8">
+      <c r="A31" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>4</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="10">
         <v>33</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>4</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>4</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="10">
         <v>34</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>4</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>4</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="12">
+      <c r="A34" t="s" s="10">
         <v>35</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>4</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="A52" s="11"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>socialEvent</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <r>
@@ -30,25 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>h</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>e grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam.</t>
+      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam.</t>
     </r>
   </si>
   <si>
@@ -180,7 +165,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="13"/>
@@ -456,14 +441,14 @@
     </a:clrScheme>
     <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Blank">
@@ -644,9 +629,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1215,9 +1200,9 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
             <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
@@ -1498,14 +1483,16 @@
       <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1513,14 +1500,16 @@
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6">
+        <v>13</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8">
         <v>1</v>
@@ -1535,7 +1524,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -1550,7 +1539,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -1565,7 +1554,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8">
         <v>2</v>
@@ -1580,7 +1569,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="8">
         <v>2</v>
@@ -1595,7 +1584,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="8">
         <v>2</v>
@@ -1610,7 +1599,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="8">
         <v>2</v>
@@ -1625,7 +1614,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -1640,7 +1629,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="8">
         <v>2</v>
@@ -1655,7 +1644,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8">
         <v>2</v>
@@ -1670,7 +1659,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -1685,7 +1674,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="8">
         <v>2</v>
@@ -1700,7 +1689,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8">
         <v>2</v>
@@ -1715,7 +1704,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
@@ -1730,7 +1719,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -1745,7 +1734,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -1760,7 +1749,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="8">
         <v>3</v>
@@ -1775,7 +1764,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="8">
         <v>3</v>
@@ -1790,7 +1779,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8">
         <v>3</v>
@@ -1805,7 +1794,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8">
         <v>3</v>
@@ -1820,7 +1809,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="8">
         <v>3</v>
@@ -1835,7 +1824,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="8">
         <v>3</v>
@@ -1850,7 +1839,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="8">
         <v>4</v>
@@ -1865,7 +1854,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="8">
         <v>4</v>
@@ -1880,7 +1869,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8">
         <v>4</v>
@@ -1895,7 +1884,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="8">
         <v>4</v>
@@ -1910,7 +1899,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="8">
         <v>4</v>
@@ -1925,7 +1914,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="8">
         <v>4</v>
@@ -1940,7 +1929,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="8">
         <v>4</v>
@@ -1955,7 +1944,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="8">
         <v>4</v>
@@ -1970,7 +1959,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="8">
         <v>4</v>
@@ -1985,7 +1974,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="8">
         <v>4</v>
@@ -2209,7 +2198,7 @@
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -33,71 +33,68 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam.</t>
+      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam as she had been for the past 5 months.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">However, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had no groceries. </t>
   </si>
   <si>
-    <t>The grocery store was dimly lit and had dark wood paneling for all the shelves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The store specialized in organic produce and products catering to desires for high-end products, such as imported cheeses and sauces. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuella felt angry as she headed immediately for the pasta section, and Liam trailed behind her. </t>
-  </si>
-  <si>
-    <t>Emmanuella selected a few boxes of linguine.</t>
-  </si>
-  <si>
-    <t>“I guess we are having pasta tonight,” Liam said.</t>
+    <t>The grocery store smelled like lavender upon entering and was dimly lit with pine shelves in the entrance and obscure, aesthetic, organic products stocking them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, Emmanuella headed immediately for the pasta section, not looking to see if Liam was following, and he trailed behind her. </t>
+  </si>
+  <si>
+    <t>She selected a few boxes of bow-tie pasta.</t>
+  </si>
+  <si>
+    <t>“I guess we are having a pasta dish tonight,” Liam said.</t>
   </si>
   <si>
     <t>Emmanuella looked back at him and said, “Well if you were going to actually help cook, I would be fine with something else.”</t>
   </si>
   <si>
-    <t>Liam sighed, and finally said, “You don’t want me to help.</t>
+    <t>Liam sighed, and finally said, “You konw, you don’t want me to help.</t>
   </si>
   <si>
     <t xml:space="preserve">I try to, but it seems like I always get in the way!” </t>
   </si>
   <si>
-    <t>Emmanuella angrily threw the pasta into the cart, losing her temper.</t>
+    <t>Emmanuella shook her head and dropped the boxes in the cart.</t>
   </si>
   <si>
     <t xml:space="preserve"> “Liam, you don’t even try!</t>
   </si>
   <si>
+    <t xml:space="preserve">She continued down the aisle and grabbed a jar of vodka sauce and a can of olives. </t>
+  </si>
+  <si>
     <t>You know what?</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t think I can do this anymore. </t>
-  </si>
-  <si>
-    <t>I was going to wait until after this unfortunately-timed dinner party tonight to talk about this, but I might as well say it now: I don’t want to be in a relationship with you anymore.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I’m tired of the constant fighting, and I feel like when we try to do anything fun anymore it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
+    <t xml:space="preserve">I don’t think I can do this anymore and I want to break up since I’m tired of the constant fighting. </t>
+  </si>
+  <si>
+    <t>I was going to wait until after this unfortunately-timed dinner party tonight to talk about this, but I might as well say it now.</t>
+  </si>
+  <si>
+    <t>I feel like when we try to do anything anymore it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
   </si>
   <si>
     <t>Liam refused to look at her as she picked out sauces for the pasta, and then she threw up her hands, saying, “You know what, if this party is still happening we are going to just eat pasta.”</t>
   </si>
   <si>
-    <t>They headed to the checkout area where there was only one station open but it was not crowded at all.</t>
+    <t>They headed to the checkout area where there was only one station open, station 2, but it was not crowded at all.</t>
   </si>
   <si>
     <t xml:space="preserve">Emmanuella sighed and got in line while Liam pretended to be interested in the magazine racks as he thought. </t>
   </si>
   <si>
-    <t xml:space="preserve">Finally he turned to her and sighed, “Yes, I was thinking the same thing - I think we could definitely be happier with other people.” </t>
-  </si>
-  <si>
-    <t>As if she hadn't heard him, Emmanuella looked at their cart and said, “I'm not sure this will be enough, could you grab another box of pasta?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Liam scoffed and walked off to quickly get it.</t>
+    <t>Finally he turned to her and sighed, “Yes, I think the same thing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I think we should break up because we could definitely be happier with other people.” </t>
   </si>
   <si>
     <t xml:space="preserve">As Emmanuella waited in line, she took a moment to compose herself, deciding that there was no reason to continue making a scene in the store. </t>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Emmanuella laughed, “Whoever leaks it loses their rights to the cat.”</t>
+  </si>
+  <si>
+    <t>Liam chuckled a little and responded, “Hey, Luna is mine and I want back.”</t>
   </si>
   <si>
     <r>
@@ -136,7 +136,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Liam rolled his eyes and managed a weak chuckle, knowing the cat would be a whole other issue to sort out later.</t>
+      <t>Emmanuella rolled her eyes and managed a weak chuckle, knowing the cat would be a whole other issue to sort out later.</t>
     </r>
     <r>
       <rPr>
@@ -334,7 +334,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -344,7 +344,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -356,6 +356,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -365,10 +368,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1463,13 +1472,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
     <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1503,696 +1506,696 @@
       <c r="D2" s="6">
         <v>13</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="32.05" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="A4" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>1</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="A5" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="10">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="12">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C13" s="10">
         <v>1</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="C15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="C16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="9">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B17" s="8">
+      <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="B18" s="8">
+      <c r="C18" s="10">
         <v>2</v>
       </c>
-      <c r="C18" s="9">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9">
         <v>3</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="B20" s="8">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="8">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9">
         <v>3</v>
       </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="B21" s="8">
+      <c r="C21" s="10">
         <v>3</v>
       </c>
-      <c r="C21" s="9">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="C22" s="9">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="B23" s="8">
+      <c r="C23" s="10">
         <v>3</v>
       </c>
-      <c r="C23" s="9">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="B24" s="9">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
         <v>3</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="B24" s="8">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10">
         <v>3</v>
       </c>
-      <c r="C24" s="9">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
         <v>3</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9">
         <v>4</v>
       </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="B26" s="8">
+      <c r="C27" s="10">
         <v>4</v>
       </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="B27" s="8">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9">
         <v>4</v>
       </c>
-      <c r="C27" s="9">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="C28" s="10">
         <v>4</v>
       </c>
-      <c r="C28" s="9">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>31</v>
+      </c>
+      <c r="B29" s="9">
         <v>4</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="B29" s="8">
+      <c r="C29" s="10">
         <v>4</v>
       </c>
-      <c r="C29" s="9">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9">
         <v>4</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="B30" s="8">
+      <c r="C30" s="10">
         <v>4</v>
       </c>
-      <c r="C30" s="9">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="12">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9">
         <v>4</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="B31" s="8">
+      <c r="C31" s="10">
         <v>4</v>
       </c>
-      <c r="C31" s="9">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="12">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9">
         <v>4</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="B32" s="8">
+      <c r="C32" s="10">
         <v>4</v>
       </c>
-      <c r="C32" s="9">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
         <v>4</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="C33" s="10">
         <v>4</v>
       </c>
-      <c r="C33" s="9">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="12">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
         <v>4</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="C34" s="10">
         <v>4</v>
       </c>
-      <c r="C34" s="9">
-        <v>4</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="11"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="11"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="11"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="11"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="11"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="11"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="11"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="11"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="11"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="11"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>storyText</t>
   </si>
@@ -33,20 +33,28 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting beforehand to the point where Emmanuella was thinking of breaking up with Liam as she had been for the past 5 months.</t>
+      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting to the point where Emmanuella was thinking of breaking up with Liam.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">However, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had no groceries. </t>
-  </si>
-  <si>
-    <t>The grocery store smelled like lavender upon entering and was dimly lit with pine shelves in the entrance and obscure, aesthetic, organic products stocking them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then, Emmanuella headed immediately for the pasta section, not looking to see if Liam was following, and he trailed behind her. </t>
-  </si>
-  <si>
-    <t>She selected a few boxes of bow-tie pasta.</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Emmanuella had been thinking of breaking up with Liam for the past 5 months.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite the tension, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had little at home with which to cook. </t>
+  </si>
+  <si>
+    <t>The grocery store smelled like lavender upon entering and was dimly lit with pine shelves in the entrance and obscure, organic products stocking them.</t>
+  </si>
+  <si>
+    <t>In the pasta section, Emmanuella grabbed a few boxes of bow-tie pasta.</t>
   </si>
   <si>
     <t>“I guess we are having a pasta dish tonight,” Liam said.</t>
@@ -55,25 +63,22 @@
     <t>Emmanuella looked back at him and said, “Well if you were going to actually help cook, I would be fine with something else.”</t>
   </si>
   <si>
-    <t>Liam sighed, and finally said, “You konw, you don’t want me to help.</t>
+    <t>Liam sighed, and finally said, “You know- you don’t want me to help.</t>
   </si>
   <si>
     <t xml:space="preserve">I try to, but it seems like I always get in the way!” </t>
   </si>
   <si>
-    <t>Emmanuella shook her head and dropped the boxes in the cart.</t>
+    <t>Emmanuella shook her head and dropped the pasta boxes in the basket she was holding.</t>
   </si>
   <si>
     <t xml:space="preserve"> “Liam, you don’t even try!</t>
   </si>
   <si>
-    <t xml:space="preserve">She continued down the aisle and grabbed a jar of vodka sauce and a can of olives. </t>
-  </si>
-  <si>
-    <t>You know what?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don’t think I can do this anymore and I want to break up since I’m tired of the constant fighting. </t>
+    <t xml:space="preserve">She continued down the aisle and studied a jar of vodka sauce and a can of olives before putting them in the basket. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuella suddenly wrinkled her eyebrows, turned to Liam, and said, “I don’t think I can do this anymore and I want to break up since I’m tired of the constant fighting. </t>
   </si>
   <si>
     <t>I was going to wait until after this unfortunately-timed dinner party tonight to talk about this, but I might as well say it now.</t>
@@ -82,25 +87,22 @@
     <t>I feel like when we try to do anything anymore it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
   </si>
   <si>
-    <t>Liam refused to look at her as she picked out sauces for the pasta, and then she threw up her hands, saying, “You know what, if this party is still happening we are going to just eat pasta.”</t>
-  </si>
-  <si>
-    <t>They headed to the checkout area where there was only one station open, station 2, but it was not crowded at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuella sighed and got in line while Liam pretended to be interested in the magazine racks as he thought. </t>
-  </si>
-  <si>
-    <t>Finally he turned to her and sighed, “Yes, I think the same thing.</t>
+    <t xml:space="preserve">Liam was nodding automatically as he thought through what was happening. </t>
+  </si>
+  <si>
+    <t>In the checkout area, there was only one station open, station 2, but it was not very crowded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuella sighed and got in line while Liam gazed in the direction of the magazines but his eyes were glazed over as he was working things out in his head. </t>
+  </si>
+  <si>
+    <t>After a few minutes of thinking, Liam recollected himself, and he turned to her and sighed, “Yes, I think the same thing.</t>
   </si>
   <si>
     <t xml:space="preserve">I think we should break up because we could definitely be happier with other people.” </t>
   </si>
   <si>
-    <t xml:space="preserve">As Emmanuella waited in line, she took a moment to compose herself, deciding that there was no reason to continue making a scene in the store. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Right when Liam came back with the pasta, the cashier started scanning their groceries.</t>
+    <t>The cashier started scanning their groceries.</t>
   </si>
   <si>
     <t>The cost came to $30, and Emmanuella paid with her credit card.</t>
@@ -109,13 +111,10 @@
     <t xml:space="preserve">She asked Liam politely to take the bags, and he obliged, following her to toward the exit. </t>
   </si>
   <si>
-    <t>“Liam, I think we are making the right decision.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is good.” </t>
-  </si>
-  <si>
-    <t>“I agree,” he said, visibly relieved at the thought that they had gotten through the last fight they would ever need to have.</t>
+    <t>Filled with a sudden wave of sadness, Emmanuella said, “Liam, I think we are making the right decision- this is good.”</t>
+  </si>
+  <si>
+    <t>“I agree,” he said, relieved at the thought that they had gotten through the last fight they would ever need to have.</t>
   </si>
   <si>
     <t>“I think we can still host this dinner tonight, as long as you're still on board,” Emmanuella said.</t>
@@ -215,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -249,6 +248,51 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
         <color indexed="10"/>
       </bottom>
       <diagonal/>
@@ -334,7 +378,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -362,22 +406,31 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1466,7 +1519,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1510,692 +1563,643 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" ht="32.05" customHeight="1">
+    <row r="3" ht="20.25" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" ht="32.05" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C5" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="B8" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="B9" s="12">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="15">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C10" s="13">
         <v>1</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C11" s="13">
         <v>1</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C12" s="13">
         <v>1</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
-        <v>14</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B13" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C13" s="13">
         <v>1</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B14" s="12">
         <v>2</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="C14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="A15" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
+      <c r="A16" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="12">
         <v>2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
+      <c r="A17" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <v>2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="12">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B19" s="12">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="C20" s="13">
         <v>3</v>
       </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
+      <c r="A21" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="12">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+      <c r="A22" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="12">
+        <v>4</v>
+      </c>
+      <c r="C22" s="13">
         <v>3</v>
       </c>
-      <c r="C22" s="10">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B23" s="12">
+        <v>4</v>
+      </c>
+      <c r="C23" s="13">
         <v>3</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="B24" s="12">
+        <v>4</v>
+      </c>
+      <c r="C24" s="13">
         <v>3</v>
       </c>
-      <c r="C23" s="10">
-        <v>3</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="B25" s="12">
         <v>4</v>
       </c>
-      <c r="C24" s="10">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="C25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="10">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
+      <c r="A26" t="s" s="11">
         <v>28</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="12">
         <v>4</v>
       </c>
-      <c r="C26" s="10">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="C26" s="13">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+      <c r="A27" t="s" s="11">
         <v>29</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="12">
         <v>4</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="13">
         <v>4</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+      <c r="A28" t="s" s="15">
         <v>30</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="12">
         <v>4</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="13">
         <v>4</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="8">
+      <c r="A29" t="s" s="15">
         <v>31</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="12">
         <v>4</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="13">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="8">
+      <c r="A30" t="s" s="15">
         <v>32</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="12">
         <v>4</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="13">
         <v>4</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="12">
+      <c r="A31" t="s" s="15">
         <v>33</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="12">
         <v>4</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="13">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="B32" s="9">
-        <v>4</v>
-      </c>
-      <c r="C32" s="10">
-        <v>4</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-      <c r="C33" s="10">
-        <v>4</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4</v>
-      </c>
-      <c r="C34" s="10">
-        <v>4</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="13"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="13"/>
-      <c r="B50" s="14"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="13"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="13"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="13"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="13"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="13"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="13"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>storyText</t>
   </si>
@@ -33,7 +33,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering they had been fighting to the point where Emmanuella was thinking of breaking up with Liam.</t>
+      <t>The grocery store was not the place Emmanuella and Liam wanted to be at the moment considering that they had been fighting to the point where Emmanuella was thinking of breaking up with Liam.</t>
     </r>
   </si>
   <si>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Despite the tension, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had little at home with which to cook. </t>
   </si>
   <si>
-    <t>The grocery store smelled like lavender upon entering and was dimly lit with pine shelves in the entrance and obscure, organic products stocking them.</t>
+    <t>The grocery store smelled like lavender upon entering and was dimly lit with pine shelves in the entrance and obscure, organic products displayed on them.</t>
   </si>
   <si>
     <t>In the pasta section, Emmanuella grabbed a few boxes of bow-tie pasta.</t>
@@ -72,28 +72,28 @@
     <t>Emmanuella shook her head and dropped the pasta boxes in the basket she was holding.</t>
   </si>
   <si>
-    <t xml:space="preserve"> “Liam, you don’t even try!</t>
+    <t xml:space="preserve"> “Like you even try,” she mumbled to herself. </t>
   </si>
   <si>
     <t xml:space="preserve">She continued down the aisle and studied a jar of vodka sauce and a can of olives before putting them in the basket. </t>
   </si>
   <si>
-    <t xml:space="preserve">Emmanuella suddenly wrinkled her eyebrows, turned to Liam, and said, “I don’t think I can do this anymore and I want to break up since I’m tired of the constant fighting. </t>
-  </si>
-  <si>
-    <t>I was going to wait until after this unfortunately-timed dinner party tonight to talk about this, but I might as well say it now.</t>
+    <t xml:space="preserve">Emmanuella suddenly wrinkled her eyebrows, turned to Liam, and said, “I want to break up with you since I’m tired of the constant fighting. </t>
+  </si>
+  <si>
+    <t>I was going to wait until after this horribly-timed dinner party tonight to talk about this, but I might as well say it now.</t>
   </si>
   <si>
     <t>I feel like when we try to do anything anymore it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
   </si>
   <si>
-    <t xml:space="preserve">Liam was nodding automatically as he thought through what was happening. </t>
+    <t>Liam was nodding automatically.</t>
   </si>
   <si>
     <t>In the checkout area, there was only one station open, station 2, but it was not very crowded.</t>
   </si>
   <si>
-    <t xml:space="preserve">Emmanuella sighed and got in line while Liam gazed in the direction of the magazines but his eyes were glazed over as he was working things out in his head. </t>
+    <t xml:space="preserve">They got in line: Liam gazed in the direction of the magazines but his eyes were glazed over as he was working things out in his head and Emmanuella was scrutinizing the pasta sauce. </t>
   </si>
   <si>
     <t>After a few minutes of thinking, Liam recollected himself, and he turned to her and sighed, “Yes, I think the same thing.</t>
@@ -102,7 +102,10 @@
     <t xml:space="preserve">I think we should break up because we could definitely be happier with other people.” </t>
   </si>
   <si>
-    <t>The cashier started scanning their groceries.</t>
+    <t xml:space="preserve">Emmanuella nodded as she listened. </t>
+  </si>
+  <si>
+    <t>The cashier scanned their groceries.</t>
   </si>
   <si>
     <t>The cost came to $30, and Emmanuella paid with her credit card.</t>
@@ -126,7 +129,7 @@
     <t>Emmanuella laughed, “Whoever leaks it loses their rights to the cat.”</t>
   </si>
   <si>
-    <t>Liam chuckled a little and responded, “Hey, Luna is mine and I want back.”</t>
+    <t>Liam chuckled a little and responded, “Hey, Luna is mine and I want her back.”</t>
   </si>
   <si>
     <r>
@@ -1519,7 +1522,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1849,7 +1852,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="13">
         <v>3</v>
@@ -1897,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1935,7 +1938,7 @@
       <c r="G27" s="14"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="15">
+      <c r="A28" t="s" s="11">
         <v>30</v>
       </c>
       <c r="B28" s="12">
@@ -1995,9 +1998,15 @@
       <c r="G31" s="14"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="14"/>
+      <c r="A32" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="B32" s="12">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13">
+        <v>4</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -2201,6 +2210,15 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
     </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>storyText</t>
   </si>
@@ -48,7 +48,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Despite the tension, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had little at home with which to cook. </t>
+    <t xml:space="preserve">Despite the current tension, they had to go grocery shopping because they were hosting a dinner party for friends that evening and had little at home with which to cook. </t>
   </si>
   <si>
     <t>The grocery store smelled like lavender upon entering and was dimly lit with pine shelves in the entrance and obscure, organic products displayed on them.</t>
@@ -75,28 +75,31 @@
     <t xml:space="preserve"> “Like you even try,” she mumbled to herself. </t>
   </si>
   <si>
-    <t xml:space="preserve">She continued down the aisle and studied a jar of vodka sauce and a can of olives before putting them in the basket. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuella suddenly wrinkled her eyebrows, turned to Liam, and said, “I want to break up with you since I’m tired of the constant fighting. </t>
+    <t xml:space="preserve">She continued down the aisle and studied a jar of vodka sauce and a can of olives before putting them in the basket as well. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuella suddenly wrinkled her eyebrows, turned to Liam, and said, “I want to break up since I’m tired of the constant fighting. </t>
   </si>
   <si>
     <t>I was going to wait until after this horribly-timed dinner party tonight to talk about this, but I might as well say it now.</t>
   </si>
   <si>
-    <t>I feel like when we try to do anything anymore it ends up unpleasant for the stupidest reasons, and I am just past  trying to work things out.”</t>
+    <t>I feel like when we try to do anything anymore it ends up unpleasant for the stupidest reasons, and I am just past trying to work things out.”</t>
   </si>
   <si>
     <t>Liam was nodding automatically.</t>
   </si>
   <si>
-    <t>In the checkout area, there was only one station open, station 2, but it was not very crowded.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They got in line: Liam gazed in the direction of the magazines but his eyes were glazed over as he was working things out in his head and Emmanuella was scrutinizing the pasta sauce. </t>
-  </si>
-  <si>
-    <t>After a few minutes of thinking, Liam recollected himself, and he turned to her and sighed, “Yes, I think the same thing.</t>
+    <t>In the checkout area, there was only one station open, Station 2, but it was not very crowded.</t>
+  </si>
+  <si>
+    <t>They got in line.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liam gazed in the direction of the magazines, but his eyes were glazed over as he was working things out in his head while Emmanuella scrutinized the pasta sauce again. </t>
+  </si>
+  <si>
+    <t>After a few minutes of thinking, Liam recollected himself, turned to her, and sighed, “Yes, I think the same thing.</t>
   </si>
   <si>
     <t xml:space="preserve">I think we should break up because we could definitely be happier with other people.” </t>
@@ -111,25 +114,28 @@
     <t>The cost came to $30, and Emmanuella paid with her credit card.</t>
   </si>
   <si>
-    <t xml:space="preserve">She asked Liam politely to take the bags, and he obliged, following her to toward the exit. </t>
+    <t xml:space="preserve">She asked Liam politely to take the bags, and he obliged, following her to the exit. </t>
   </si>
   <si>
     <t>Filled with a sudden wave of sadness, Emmanuella said, “Liam, I think we are making the right decision- this is good.”</t>
   </si>
   <si>
-    <t>“I agree,” he said, relieved at the thought that they had gotten through the last fight they would ever need to have.</t>
+    <t xml:space="preserve">“I agree,” he said, relieved at the hope he was entertaining that they had just gotten through their last fight. </t>
   </si>
   <si>
     <t>“I think we can still host this dinner tonight, as long as you're still on board,” Emmanuella said.</t>
   </si>
   <si>
-    <t xml:space="preserve">Liam nodded, “Yes, let’s just not tell anyone yet.” </t>
-  </si>
-  <si>
-    <t>Emmanuella laughed, “Whoever leaks it loses their rights to the cat.”</t>
-  </si>
-  <si>
-    <t>Liam chuckled a little and responded, “Hey, Luna is mine and I want her back.”</t>
+    <t xml:space="preserve">Liam nodded, “Yes, let’s just not tell anyone we’ve broken up tonight.” </t>
+  </si>
+  <si>
+    <t>Emmanuella laughed, “Whoever leaks it loses their right to the cat.”</t>
+  </si>
+  <si>
+    <t>Liam chuckled and responded, “Hey!</t>
+  </si>
+  <si>
+    <t>Luna is mine and I want her back.”</t>
   </si>
   <si>
     <r>
@@ -138,7 +144,7 @@
         <color indexed="8"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>Emmanuella rolled her eyes and managed a weak chuckle, knowing the cat would be a whole other issue to sort out later.</t>
+      <t>Emmanuella rolled her eyes, knowing the cat would be a whole other issue to sort out later.</t>
     </r>
     <r>
       <rPr>
@@ -1522,7 +1528,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1825,7 +1831,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1867,7 +1873,7 @@
         <v>25</v>
       </c>
       <c r="B23" s="12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="13">
         <v>3</v>
@@ -1915,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -1953,7 +1959,7 @@
       <c r="G28" s="14"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="15">
+      <c r="A29" t="s" s="11">
         <v>31</v>
       </c>
       <c r="B29" s="12">
@@ -2013,18 +2019,30 @@
       <c r="G32" s="14"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="14"/>
+      <c r="A33" t="s" s="15">
+        <v>35</v>
+      </c>
+      <c r="B33" s="12">
+        <v>4</v>
+      </c>
+      <c r="C33" s="13">
+        <v>4</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="14"/>
+      <c r="A34" t="s" s="15">
+        <v>36</v>
+      </c>
+      <c r="B34" s="12">
+        <v>4</v>
+      </c>
+      <c r="C34" s="13">
+        <v>4</v>
+      </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -2219,6 +2237,24 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
     </row>
+    <row r="56" ht="20.05" customHeight="1">
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/story_xlsx_files/13.xlsx
+++ b/story_xlsx_files/13.xlsx
@@ -114,7 +114,7 @@
     <t>The cost came to $30, and Emmanuella paid with her credit card.</t>
   </si>
   <si>
-    <t xml:space="preserve">She asked Liam politely to take the bags, and he obliged, following her to the exit. </t>
+    <t xml:space="preserve">She asked Liam politely to take the bags, and he obliged, following her toward the exit. </t>
   </si>
   <si>
     <t>Filled with a sudden wave of sadness, Emmanuella said, “Liam, I think we are making the right decision- this is good.”</t>
@@ -387,7 +387,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +415,10 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1576,684 +1579,688 @@
       <c r="A3" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" t="s" s="11">
+      <c r="A4" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="14">
         <v>1</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="11">
+      <c r="A5" t="s" s="12">
         <v>7</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="14">
         <v>1</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="A6" t="s" s="12">
         <v>8</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="A7" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="11">
+      <c r="A8" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="14">
         <v>1</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="14">
         <v>1</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="15">
+      <c r="A10" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="14">
         <v>1</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="11">
+      <c r="A11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="11">
+      <c r="A12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="11">
+      <c r="A13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="13">
         <v>2</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="14">
         <v>1</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="11">
+      <c r="A14" t="s" s="12">
         <v>16</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="14">
         <v>2</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="11">
+      <c r="A15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="13">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="14">
         <v>2</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="11">
+      <c r="A16" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="13">
         <v>2</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="14">
         <v>2</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="15">
+      <c r="A17" t="s" s="16">
         <v>19</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="13">
         <v>2</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="14">
         <v>2</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="11">
+      <c r="A18" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="13">
         <v>3</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="14">
         <v>2</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="11">
+      <c r="A19" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="13">
         <v>3</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="11">
+      <c r="A20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="13">
         <v>3</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="14">
         <v>2</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="11">
+      <c r="A21" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="13">
         <v>3</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="14">
         <v>3</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="11">
+      <c r="A22" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="13">
         <v>3</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>3</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="11">
+      <c r="A23" t="s" s="12">
         <v>25</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="13">
         <v>3</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="14">
         <v>3</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="11">
+      <c r="A24" t="s" s="12">
         <v>26</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="13">
         <v>4</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="14">
         <v>3</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="11">
+      <c r="A25" t="s" s="12">
         <v>27</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="14">
         <v>3</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="11">
+      <c r="A26" t="s" s="12">
         <v>28</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="13">
         <v>4</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="14">
         <v>3</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="11">
+      <c r="A27" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <v>4</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="14">
         <v>4</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="11">
+      <c r="A28" t="s" s="12">
         <v>30</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="13">
         <v>4</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="14">
         <v>4</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="11">
+      <c r="A29" t="s" s="12">
         <v>31</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="13">
         <v>4</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="14">
         <v>4</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="15">
+      <c r="A30" t="s" s="16">
         <v>32</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="14">
         <v>4</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="15">
+      <c r="A31" t="s" s="16">
         <v>33</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="13">
         <v>4</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="14">
         <v>4</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="15">
+      <c r="A32" t="s" s="16">
         <v>34</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="14">
         <v>4</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="15">
+      <c r="A33" t="s" s="16">
         <v>35</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="13">
         <v>4</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="14">
         <v>4</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="15">
+      <c r="A34" t="s" s="16">
         <v>36</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="13">
         <v>4</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="14">
         <v>4</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
